--- a/data/stat probs/moritz wagner stat probs - condition.xlsx
+++ b/data/stat probs/moritz wagner stat probs - condition.xlsx
@@ -21,10 +21,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
@@ -581,28 +581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1543,28 +1543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1929,28 +1929,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -2827,28 +2827,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -3725,28 +3725,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -4687,28 +4687,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -5581,6 +5581,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>78</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>78</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>78</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>78</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>89</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>89</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>89</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>78</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>78</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>78</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>78</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>89</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>89</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n">
+        <v>89</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5649,28 +6997,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -6030,7 +7378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6099,28 +7447,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -6472,1162 +7820,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>88</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>88</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>62</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>88</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
-      <c r="H5" t="n">
-        <v>62</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>38</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>62</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>88</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>62</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>62</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>62</v>
-      </c>
-      <c r="D13" t="n">
-        <v>38</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" t="n">
-        <v>62</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>88</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>88</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" t="n">
-        <v>88</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>88</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>88</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>62</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>88</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
-      <c r="H5" t="n">
-        <v>62</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>38</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>62</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>88</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>62</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>62</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>62</v>
-      </c>
-      <c r="D13" t="n">
-        <v>38</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" t="n">
-        <v>62</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>88</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>88</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" t="n">
-        <v>88</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7705,28 +7897,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -8283,28 +8475,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -9245,28 +9437,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -9823,28 +10015,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10657,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -11113,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11339,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11559,28 +11751,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -12009,28 +12201,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -12459,22 +12651,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12941,22 +13133,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13423,28 +13615,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13937,28 +14129,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -14899,28 +15091,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15413,28 +15605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15991,28 +16183,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16569,10 +16761,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -16581,10 +16773,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16731,10 +16923,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -16743,10 +16935,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16893,22 +17085,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17247,22 +17439,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17601,28 +17793,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18243,28 +18435,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18885,28 +19077,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19431,28 +19623,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -20393,28 +20585,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20939,28 +21131,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21389,28 +21581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21839,28 +22031,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -22545,28 +22737,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -23251,28 +23443,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23829,28 +24021,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24407,28 +24599,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24921,28 +25113,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25435,28 +25627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25981,28 +26173,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -26879,28 +27071,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27425,28 +27617,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27779,28 +27971,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28133,22 +28325,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28519,22 +28711,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28905,28 +29097,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29355,28 +29547,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29805,22 +29997,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29999,22 +30191,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30193,28 +30385,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31155,28 +31347,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -32053,28 +32245,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33015,28 +33207,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33977,28 +34169,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34939,28 +35131,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -35549,28 +35741,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -36159,28 +36351,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36641,28 +36833,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -37123,10 +37315,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -37141,10 +37333,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37829,10 +38021,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -37847,10 +38039,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38535,28 +38727,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -39337,28 +39529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -39947,28 +40139,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -40749,28 +40941,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41647,28 +41839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42545,28 +42737,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43027,28 +43219,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43509,28 +43701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43767,28 +43959,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44025,28 +44217,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44283,28 +44475,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44541,28 +44733,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44863,28 +45055,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -45473,28 +45665,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45795,28 +45987,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46277,28 +46469,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46759,28 +46951,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47241,28 +47433,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47723,28 +47915,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48365,28 +48557,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49007,28 +49199,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49489,28 +49681,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49971,28 +50163,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -50613,28 +50805,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50999,28 +51191,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -51641,28 +51833,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52379,28 +52571,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53117,16 +53309,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -53135,10 +53327,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53439,16 +53631,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -53457,10 +53649,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
